--- a/sample.xlsx
+++ b/sample.xlsx
@@ -483,8 +483,10 @@
       <c r="B2">
         <v>76</v>
       </c>
-      <c r="C2">
-        <v>2017121476</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2017121476</t>
+        </is>
       </c>
       <c r="D2">
         <v>2</v>
@@ -554,8 +556,10 @@
       <c r="B3">
         <v>78</v>
       </c>
-      <c r="C3">
-        <v>2017121478</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2017121478</t>
+        </is>
       </c>
       <c r="D3">
         <v>2</v>
@@ -625,8 +629,10 @@
       <c r="B4">
         <v>178</v>
       </c>
-      <c r="C4">
-        <v>20170110178</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20170110178</t>
+        </is>
       </c>
       <c r="D4">
         <v>2</v>
@@ -696,8 +702,10 @@
       <c r="B5">
         <v>67</v>
       </c>
-      <c r="C5">
-        <v>2017012067</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2017012067</t>
+        </is>
       </c>
       <c r="D5">
         <v>2</v>
@@ -767,8 +775,10 @@
       <c r="B6">
         <v>26</v>
       </c>
-      <c r="C6">
-        <v>2017012526</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2017012526</t>
+        </is>
       </c>
       <c r="D6">
         <v>2</v>
@@ -838,8 +848,10 @@
       <c r="B7">
         <v>1111</v>
       </c>
-      <c r="C7">
-        <v>201701311111</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>201701311111</t>
+        </is>
       </c>
       <c r="D7">
         <v>2</v>
@@ -909,8 +921,10 @@
       <c r="B8">
         <v>734</v>
       </c>
-      <c r="C8">
-        <v>20170131734</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20170131734</t>
+        </is>
       </c>
       <c r="D8">
         <v>2</v>
@@ -990,8 +1004,10 @@
       <c r="B9">
         <v>24</v>
       </c>
-      <c r="C9">
-        <v>2017021024</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2017021024</t>
+        </is>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1061,8 +1077,10 @@
       <c r="B10">
         <v>99</v>
       </c>
-      <c r="C10">
-        <v>2017021599</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2017021599</t>
+        </is>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1132,8 +1150,10 @@
       <c r="B11">
         <v>1620</v>
       </c>
-      <c r="C11">
-        <v>201702221620</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>201702221620</t>
+        </is>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1203,8 +1223,10 @@
       <c r="B12">
         <v>240</v>
       </c>
-      <c r="C12">
-        <v>20170228240</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20170228240</t>
+        </is>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1274,8 +1296,10 @@
       <c r="B13">
         <v>765</v>
       </c>
-      <c r="C13">
-        <v>20170228765</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20170228765</t>
+        </is>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1345,8 +1369,10 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14">
-        <v>201703061</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>201703061</t>
+        </is>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1426,8 +1452,10 @@
       <c r="B15">
         <v>43</v>
       </c>
-      <c r="C15">
-        <v>2017031343</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2017031343</t>
+        </is>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1497,8 +1525,10 @@
       <c r="B16">
         <v>46</v>
       </c>
-      <c r="C16">
-        <v>2017031346</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2017031346</t>
+        </is>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1568,8 +1598,10 @@
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17">
-        <v>2017032014</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2017032014</t>
+        </is>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1639,8 +1671,10 @@
       <c r="B18">
         <v>57</v>
       </c>
-      <c r="C18">
-        <v>2017032457</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2017032457</t>
+        </is>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1710,8 +1744,10 @@
       <c r="B19">
         <v>650</v>
       </c>
-      <c r="C19">
-        <v>20170331650</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20170331650</t>
+        </is>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1781,8 +1817,10 @@
       <c r="B20">
         <v>1062</v>
       </c>
-      <c r="C20">
-        <v>201703311062</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>201703311062</t>
+        </is>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1852,8 +1890,10 @@
       <c r="B21">
         <v>1080</v>
       </c>
-      <c r="C21">
-        <v>201703311080</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>201703311080</t>
+        </is>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1933,8 +1973,10 @@
       <c r="B22">
         <v>57</v>
       </c>
-      <c r="C22">
-        <v>2017040757</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2017040757</t>
+        </is>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2004,8 +2046,10 @@
       <c r="B23">
         <v>15</v>
       </c>
-      <c r="C23">
-        <v>2017041315</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2017041315</t>
+        </is>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2075,8 +2119,10 @@
       <c r="B24">
         <v>1239</v>
       </c>
-      <c r="C24">
-        <v>201704241239</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>201704241239</t>
+        </is>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2146,8 +2192,10 @@
       <c r="B25">
         <v>38</v>
       </c>
-      <c r="C25">
-        <v>2017042738</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2017042738</t>
+        </is>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2217,8 +2265,10 @@
       <c r="B26">
         <v>522</v>
       </c>
-      <c r="C26">
-        <v>20170430522</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>20170430522</t>
+        </is>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2298,8 +2348,10 @@
       <c r="B27">
         <v>83</v>
       </c>
-      <c r="C27">
-        <v>2017050283</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2017050283</t>
+        </is>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2369,8 +2421,10 @@
       <c r="B28">
         <v>44</v>
       </c>
-      <c r="C28">
-        <v>2017051544</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2017051544</t>
+        </is>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2440,8 +2494,10 @@
       <c r="B29">
         <v>2254</v>
       </c>
-      <c r="C29">
-        <v>201705232254</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>201705232254</t>
+        </is>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2511,8 +2567,10 @@
       <c r="B30">
         <v>438</v>
       </c>
-      <c r="C30">
-        <v>20170531438</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>20170531438</t>
+        </is>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2592,8 +2650,10 @@
       <c r="B31">
         <v>771</v>
       </c>
-      <c r="C31">
-        <v>20170531771</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>20170531771</t>
+        </is>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2663,8 +2723,10 @@
       <c r="B32">
         <v>953</v>
       </c>
-      <c r="C32">
-        <v>20170531953</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>20170531953</t>
+        </is>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2744,8 +2806,10 @@
       <c r="B33">
         <v>3</v>
       </c>
-      <c r="C33">
-        <v>201706103</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>201706103</t>
+        </is>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2815,8 +2879,10 @@
       <c r="B34">
         <v>906</v>
       </c>
-      <c r="C34">
-        <v>20170620906</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>20170620906</t>
+        </is>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2886,8 +2952,10 @@
       <c r="B35">
         <v>3218</v>
       </c>
-      <c r="C35">
-        <v>201706203218</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>201706203218</t>
+        </is>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2957,8 +3025,10 @@
       <c r="B36">
         <v>448</v>
       </c>
-      <c r="C36">
-        <v>20170630448</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>20170630448</t>
+        </is>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3038,8 +3108,10 @@
       <c r="B37">
         <v>986</v>
       </c>
-      <c r="C37">
-        <v>20170630986</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>20170630986</t>
+        </is>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3109,8 +3181,10 @@
       <c r="B38">
         <v>1035</v>
       </c>
-      <c r="C38">
-        <v>201706301035</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>201706301035</t>
+        </is>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3190,8 +3264,10 @@
       <c r="B39">
         <v>1086</v>
       </c>
-      <c r="C39">
-        <v>201706301086</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>201706301086</t>
+        </is>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3261,8 +3337,10 @@
       <c r="B40">
         <v>86</v>
       </c>
-      <c r="C40">
-        <v>2017071086</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2017071086</t>
+        </is>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3332,8 +3410,10 @@
       <c r="B41">
         <v>1218</v>
       </c>
-      <c r="C41">
-        <v>201707201218</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>201707201218</t>
+        </is>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3403,8 +3483,10 @@
       <c r="B42">
         <v>529</v>
       </c>
-      <c r="C42">
-        <v>20170731529</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20170731529</t>
+        </is>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3474,8 +3556,10 @@
       <c r="B43">
         <v>797</v>
       </c>
-      <c r="C43">
-        <v>20170731797</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>20170731797</t>
+        </is>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3545,8 +3629,10 @@
       <c r="B44">
         <v>965</v>
       </c>
-      <c r="C44">
-        <v>20170731965</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>20170731965</t>
+        </is>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3616,8 +3702,10 @@
       <c r="B45">
         <v>238</v>
       </c>
-      <c r="C45">
-        <v>20170804238</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>20170804238</t>
+        </is>
       </c>
       <c r="D45">
         <v>3</v>
@@ -3697,8 +3785,10 @@
       <c r="B46">
         <v>14</v>
       </c>
-      <c r="C46">
-        <v>2017082014</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2017082014</t>
+        </is>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3768,8 +3858,10 @@
       <c r="B47">
         <v>23</v>
       </c>
-      <c r="C47">
-        <v>2017082423</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2017082423</t>
+        </is>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3839,8 +3931,10 @@
       <c r="B48">
         <v>340</v>
       </c>
-      <c r="C48">
-        <v>20170831340</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>20170831340</t>
+        </is>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3920,8 +4014,10 @@
       <c r="B49">
         <v>959</v>
       </c>
-      <c r="C49">
-        <v>20170831959</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>20170831959</t>
+        </is>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3991,8 +4087,10 @@
       <c r="B50">
         <v>1116</v>
       </c>
-      <c r="C50">
-        <v>201708311116</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>201708311116</t>
+        </is>
       </c>
       <c r="D50">
         <v>2</v>
@@ -4062,8 +4160,10 @@
       <c r="B51">
         <v>31</v>
       </c>
-      <c r="C51">
-        <v>2017091831</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2017091831</t>
+        </is>
       </c>
       <c r="D51">
         <v>2</v>
@@ -4133,8 +4233,10 @@
       <c r="B52">
         <v>3133</v>
       </c>
-      <c r="C52">
-        <v>201709213133</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>201709213133</t>
+        </is>
       </c>
       <c r="D52">
         <v>2</v>
@@ -4204,8 +4306,10 @@
       <c r="B53">
         <v>39</v>
       </c>
-      <c r="C53">
-        <v>2017092739</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2017092739</t>
+        </is>
       </c>
       <c r="D53">
         <v>2</v>
@@ -4275,8 +4379,10 @@
       <c r="B54">
         <v>699</v>
       </c>
-      <c r="C54">
-        <v>20170930699</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>20170930699</t>
+        </is>
       </c>
       <c r="D54">
         <v>2</v>
@@ -4356,8 +4462,10 @@
       <c r="B55">
         <v>907</v>
       </c>
-      <c r="C55">
-        <v>20170930907</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>20170930907</t>
+        </is>
       </c>
       <c r="D55">
         <v>2</v>
@@ -4427,8 +4535,10 @@
       <c r="B56">
         <v>293</v>
       </c>
-      <c r="C56">
-        <v>20171010293</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>20171010293</t>
+        </is>
       </c>
       <c r="D56">
         <v>2</v>
@@ -4498,8 +4608,10 @@
       <c r="B57">
         <v>20</v>
       </c>
-      <c r="C57">
-        <v>2017101820</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2017101820</t>
+        </is>
       </c>
       <c r="D57">
         <v>2</v>
@@ -4569,8 +4681,10 @@
       <c r="B58">
         <v>51</v>
       </c>
-      <c r="C58">
-        <v>2017102551</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2017102551</t>
+        </is>
       </c>
       <c r="D58">
         <v>2</v>
@@ -4650,8 +4764,10 @@
       <c r="B59">
         <v>691</v>
       </c>
-      <c r="C59">
-        <v>20171031691</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>20171031691</t>
+        </is>
       </c>
       <c r="D59">
         <v>2</v>
@@ -4721,8 +4837,10 @@
       <c r="B60">
         <v>766</v>
       </c>
-      <c r="C60">
-        <v>20171031766</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>20171031766</t>
+        </is>
       </c>
       <c r="D60">
         <v>2</v>
@@ -4802,8 +4920,10 @@
       <c r="B61">
         <v>980</v>
       </c>
-      <c r="C61">
-        <v>20171031980</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>20171031980</t>
+        </is>
       </c>
       <c r="D61">
         <v>2</v>
@@ -4873,8 +4993,10 @@
       <c r="B62">
         <v>1045</v>
       </c>
-      <c r="C62">
-        <v>201710311045</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>201710311045</t>
+        </is>
       </c>
       <c r="D62">
         <v>2</v>
@@ -4954,8 +5076,10 @@
       <c r="B63">
         <v>133</v>
       </c>
-      <c r="C63">
-        <v>20171110133</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>20171110133</t>
+        </is>
       </c>
       <c r="D63">
         <v>2</v>
@@ -5025,8 +5149,10 @@
       <c r="B64">
         <v>1876</v>
       </c>
-      <c r="C64">
-        <v>201711201876</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>201711201876</t>
+        </is>
       </c>
       <c r="D64">
         <v>2</v>
@@ -5096,8 +5222,10 @@
       <c r="B65">
         <v>681</v>
       </c>
-      <c r="C65">
-        <v>20171130681</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>20171130681</t>
+        </is>
       </c>
       <c r="D65">
         <v>2</v>
@@ -5177,8 +5305,10 @@
       <c r="B66">
         <v>1067</v>
       </c>
-      <c r="C66">
-        <v>201711301067</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>201711301067</t>
+        </is>
       </c>
       <c r="D66">
         <v>2</v>
@@ -5258,8 +5388,10 @@
       <c r="B67">
         <v>1156</v>
       </c>
-      <c r="C67">
-        <v>201711301156</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>201711301156</t>
+        </is>
       </c>
       <c r="D67">
         <v>2</v>
@@ -5329,8 +5461,10 @@
       <c r="B68">
         <v>1170</v>
       </c>
-      <c r="C68">
-        <v>201711301170</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>201711301170</t>
+        </is>
       </c>
       <c r="D68">
         <v>2</v>
@@ -5400,8 +5534,10 @@
       <c r="B69">
         <v>1171</v>
       </c>
-      <c r="C69">
-        <v>201711301171</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>201711301171</t>
+        </is>
       </c>
       <c r="D69">
         <v>2</v>
@@ -5471,8 +5607,10 @@
       <c r="B70">
         <v>8</v>
       </c>
-      <c r="C70">
-        <v>201712108</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>201712108</t>
+        </is>
       </c>
       <c r="D70">
         <v>2</v>
@@ -5542,8 +5680,10 @@
       <c r="B71">
         <v>309</v>
       </c>
-      <c r="C71">
-        <v>20171218309</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>20171218309</t>
+        </is>
       </c>
       <c r="D71">
         <v>2</v>
@@ -5613,8 +5753,10 @@
       <c r="B72">
         <v>28</v>
       </c>
-      <c r="C72">
-        <v>2017122228</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2017122228</t>
+        </is>
       </c>
       <c r="D72">
         <v>2</v>
@@ -5684,8 +5826,10 @@
       <c r="B73">
         <v>611</v>
       </c>
-      <c r="C73">
-        <v>20171226611</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>20171226611</t>
+        </is>
       </c>
       <c r="D73">
         <v>2</v>
@@ -5755,8 +5899,10 @@
       <c r="B74">
         <v>90</v>
       </c>
-      <c r="C74">
-        <v>2017122890</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2017122890</t>
+        </is>
       </c>
       <c r="D74">
         <v>2</v>
@@ -5826,8 +5972,10 @@
       <c r="B75">
         <v>832</v>
       </c>
-      <c r="C75">
-        <v>20171231832</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>20171231832</t>
+        </is>
       </c>
       <c r="D75">
         <v>2</v>
@@ -5907,8 +6055,10 @@
       <c r="B76">
         <v>1026</v>
       </c>
-      <c r="C76">
-        <v>201712311026</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>201712311026</t>
+        </is>
       </c>
       <c r="D76">
         <v>2</v>
@@ -5988,8 +6138,10 @@
       <c r="B77">
         <v>1269</v>
       </c>
-      <c r="C77">
-        <v>201712311269</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>201712311269</t>
+        </is>
       </c>
       <c r="D77">
         <v>2</v>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,6 +475,11 @@
           <t>MODIFY_DT</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -494,8 +499,10 @@
       <c r="E2">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>40401</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -546,6 +553,11 @@
       <c r="V2" t="inlineStr">
         <is>
           <t>2018-01-04 오후 4:56:28</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -567,8 +579,10 @@
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3">
-        <v>40401</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -619,6 +633,11 @@
       <c r="V3" t="inlineStr">
         <is>
           <t>2018-01-22 오후 4:41:05</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -640,8 +659,10 @@
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4">
-        <v>40401</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -692,6 +713,11 @@
       <c r="V4" t="inlineStr">
         <is>
           <t>2017-01-31 오후 2:51:04</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -713,8 +739,10 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>40401</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -765,6 +793,11 @@
       <c r="V5" t="inlineStr">
         <is>
           <t>2017-01-23 오후 1:29:24</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -786,8 +819,10 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>40401</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -838,6 +873,11 @@
       <c r="V6" t="inlineStr">
         <is>
           <t>2017-01-25 오후 3:46:32</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -859,8 +899,10 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7">
-        <v>40401</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -911,6 +953,11 @@
       <c r="V7" t="inlineStr">
         <is>
           <t>2017-03-07 오후 2:48:10</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -932,8 +979,10 @@
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8">
-        <v>40700</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -994,6 +1043,11 @@
       <c r="V8" t="inlineStr">
         <is>
           <t>2017-02-01 오후 7:27:13</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1015,8 +1069,10 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9">
-        <v>40401</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1067,6 +1123,11 @@
       <c r="V9" t="inlineStr">
         <is>
           <t>2017-02-13 오전 10:02:02</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1088,8 +1149,10 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10">
-        <v>40401</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1140,6 +1203,11 @@
       <c r="V10" t="inlineStr">
         <is>
           <t>2017-02-17 오후 4:16:46</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1161,8 +1229,10 @@
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11">
-        <v>40401</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1213,6 +1283,11 @@
       <c r="V11" t="inlineStr">
         <is>
           <t>2017-02-24 오전 10:32:49</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1234,8 +1309,10 @@
       <c r="E12">
         <v>4</v>
       </c>
-      <c r="F12">
-        <v>40401</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1286,6 +1363,11 @@
       <c r="V12" t="inlineStr">
         <is>
           <t>2017-02-28 오전 9:18:32</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1307,8 +1389,10 @@
       <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13">
-        <v>40401</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1359,6 +1443,11 @@
       <c r="V13" t="inlineStr">
         <is>
           <t>2017-03-02 오후 6:18:48</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1380,8 +1469,10 @@
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14">
-        <v>40700</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1442,6 +1533,11 @@
       <c r="V14" t="inlineStr">
         <is>
           <t>2017-03-06 오후 1:28:57</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1463,8 +1559,10 @@
       <c r="E15">
         <v>4</v>
       </c>
-      <c r="F15">
-        <v>40401</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1515,6 +1613,11 @@
       <c r="V15" t="inlineStr">
         <is>
           <t>2017-03-27 오후 2:53:50</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1536,8 +1639,10 @@
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16">
-        <v>40100</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>40100</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1588,6 +1693,11 @@
       <c r="V16" t="inlineStr">
         <is>
           <t>2017-03-27 오후 2:53:51</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1609,8 +1719,10 @@
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17">
-        <v>40401</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1661,6 +1773,11 @@
       <c r="V17" t="inlineStr">
         <is>
           <t>2017-03-20 오전 11:44:20</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1682,8 +1799,10 @@
       <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18">
-        <v>40401</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1734,6 +1853,11 @@
       <c r="V18" t="inlineStr">
         <is>
           <t>2017-03-29 오후 3:49:40</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1755,8 +1879,10 @@
       <c r="E19">
         <v>4</v>
       </c>
-      <c r="F19">
-        <v>40401</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1807,6 +1933,11 @@
       <c r="V19" t="inlineStr">
         <is>
           <t>2017-03-31 오후 3:07:50</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1828,8 +1959,10 @@
       <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20">
-        <v>40401</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1880,6 +2013,11 @@
       <c r="V20" t="inlineStr">
         <is>
           <t>2017-04-06 오전 10:17:38</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1901,8 +2039,10 @@
       <c r="E21">
         <v>4</v>
       </c>
-      <c r="F21">
-        <v>40700</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1963,6 +2103,11 @@
       <c r="V21" t="inlineStr">
         <is>
           <t>2017-04-06 오후 2:17:35</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1984,8 +2129,10 @@
       <c r="E22">
         <v>4</v>
       </c>
-      <c r="F22">
-        <v>40401</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2036,6 +2183,11 @@
       <c r="V22" t="inlineStr">
         <is>
           <t>2017-04-28 오후 1:20:22</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2057,8 +2209,10 @@
       <c r="E23">
         <v>4</v>
       </c>
-      <c r="F23">
-        <v>40401</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2109,6 +2263,11 @@
       <c r="V23" t="inlineStr">
         <is>
           <t>2017-04-13 오후 4:39:02</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2130,8 +2289,10 @@
       <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24">
-        <v>40401</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2182,6 +2343,11 @@
       <c r="V24" t="inlineStr">
         <is>
           <t>2017-04-25 오후 4:10:43</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2203,8 +2369,10 @@
       <c r="E25">
         <v>4</v>
       </c>
-      <c r="F25">
-        <v>40100</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>40100</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2255,6 +2423,11 @@
       <c r="V25" t="inlineStr">
         <is>
           <t>2017-05-01 오전 8:50:56</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2276,8 +2449,10 @@
       <c r="E26">
         <v>4</v>
       </c>
-      <c r="F26">
-        <v>40700</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2338,6 +2513,11 @@
       <c r="V26" t="inlineStr">
         <is>
           <t>2017-04-28 오후 6:16:23</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2359,8 +2539,10 @@
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="F27">
-        <v>40401</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2411,6 +2593,11 @@
       <c r="V27" t="inlineStr">
         <is>
           <t>2017-06-02 오후 6:44:25</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2432,8 +2619,10 @@
       <c r="E28">
         <v>4</v>
       </c>
-      <c r="F28">
-        <v>40401</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2484,6 +2673,11 @@
       <c r="V28" t="inlineStr">
         <is>
           <t>2017-05-16 오후 4:04:05</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2505,8 +2699,10 @@
       <c r="E29">
         <v>4</v>
       </c>
-      <c r="F29">
-        <v>40401</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2557,6 +2753,11 @@
       <c r="V29" t="inlineStr">
         <is>
           <t>2017-05-24 오후 3:28:09</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2578,8 +2779,10 @@
       <c r="E30">
         <v>4</v>
       </c>
-      <c r="F30">
-        <v>40700</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2640,6 +2843,11 @@
       <c r="V30" t="inlineStr">
         <is>
           <t>2017-05-30 오후 5:46:49</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2661,8 +2869,10 @@
       <c r="E31">
         <v>4</v>
       </c>
-      <c r="F31">
-        <v>40401</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2713,6 +2923,11 @@
       <c r="V31" t="inlineStr">
         <is>
           <t>2017-06-01 오후 6:37:41</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2734,8 +2949,10 @@
       <c r="E32">
         <v>4</v>
       </c>
-      <c r="F32">
-        <v>40700</v>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2796,6 +3013,11 @@
       <c r="V32" t="inlineStr">
         <is>
           <t>2017-06-02 오후 7:46:25</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2817,8 +3039,10 @@
       <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33">
-        <v>40401</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2869,6 +3093,11 @@
       <c r="V33" t="inlineStr">
         <is>
           <t>2017-06-13 오후 3:55:06</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2890,8 +3119,10 @@
       <c r="E34">
         <v>4</v>
       </c>
-      <c r="F34">
-        <v>40401</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2942,6 +3173,11 @@
       <c r="V34" t="inlineStr">
         <is>
           <t>2017-06-22 오전 9:21:21</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2963,8 +3199,10 @@
       <c r="E35">
         <v>4</v>
       </c>
-      <c r="F35">
-        <v>40401</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3015,6 +3253,11 @@
       <c r="V35" t="inlineStr">
         <is>
           <t>2017-06-27 오후 3:33:49</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3036,8 +3279,10 @@
       <c r="E36">
         <v>4</v>
       </c>
-      <c r="F36">
-        <v>40700</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3098,6 +3343,11 @@
       <c r="V36" t="inlineStr">
         <is>
           <t>2017-06-30 오전 11:52:48</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3119,8 +3369,10 @@
       <c r="E37">
         <v>4</v>
       </c>
-      <c r="F37">
-        <v>40401</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3171,6 +3423,11 @@
       <c r="V37" t="inlineStr">
         <is>
           <t>2017-07-05 오후 1:23:10</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3192,8 +3449,10 @@
       <c r="E38">
         <v>4</v>
       </c>
-      <c r="F38">
-        <v>40700</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3254,6 +3513,11 @@
       <c r="V38" t="inlineStr">
         <is>
           <t>2017-07-05 오후 8:19:09</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3275,8 +3539,10 @@
       <c r="E39">
         <v>4</v>
       </c>
-      <c r="F39">
-        <v>40401</v>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3327,6 +3593,11 @@
       <c r="V39" t="inlineStr">
         <is>
           <t>2017-07-06 오전 8:45:41</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3348,8 +3619,10 @@
       <c r="E40">
         <v>4</v>
       </c>
-      <c r="F40">
-        <v>40401</v>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3400,6 +3673,11 @@
       <c r="V40" t="inlineStr">
         <is>
           <t>2017-07-12 오전 11:50:26</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3421,8 +3699,10 @@
       <c r="E41">
         <v>4</v>
       </c>
-      <c r="F41">
-        <v>40401</v>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3473,6 +3753,11 @@
       <c r="V41" t="inlineStr">
         <is>
           <t>2017-07-21 오후 3:53:19</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3494,8 +3779,10 @@
       <c r="E42">
         <v>4</v>
       </c>
-      <c r="F42">
-        <v>40401</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3546,6 +3833,11 @@
       <c r="V42" t="inlineStr">
         <is>
           <t>2017-07-31 오후 3:45:47</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3567,8 +3859,10 @@
       <c r="E43">
         <v>4</v>
       </c>
-      <c r="F43">
-        <v>40401</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3619,6 +3913,11 @@
       <c r="V43" t="inlineStr">
         <is>
           <t>2017-08-02 오전 9:48:43</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3640,8 +3939,10 @@
       <c r="E44">
         <v>4</v>
       </c>
-      <c r="F44">
-        <v>40401</v>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3692,6 +3993,11 @@
       <c r="V44" t="inlineStr">
         <is>
           <t>2017-08-02 오후 6:23:08</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3713,8 +4019,10 @@
       <c r="E45">
         <v>4</v>
       </c>
-      <c r="F45">
-        <v>40700</v>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3775,6 +4083,11 @@
       <c r="V45" t="inlineStr">
         <is>
           <t>2017-08-10 오후 1:04:30</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3796,8 +4109,10 @@
       <c r="E46">
         <v>4</v>
       </c>
-      <c r="F46">
-        <v>40401</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3848,6 +4163,11 @@
       <c r="V46" t="inlineStr">
         <is>
           <t>2017-08-22 오후 1:47:23</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3869,8 +4189,10 @@
       <c r="E47">
         <v>4</v>
       </c>
-      <c r="F47">
-        <v>40401</v>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3921,6 +4243,11 @@
       <c r="V47" t="inlineStr">
         <is>
           <t>2017-08-25 오후 3:38:47</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3942,8 +4269,10 @@
       <c r="E48">
         <v>4</v>
       </c>
-      <c r="F48">
-        <v>40700</v>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -4004,6 +4333,11 @@
       <c r="V48" t="inlineStr">
         <is>
           <t>2017-08-30 오전 9:22:52</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4025,8 +4359,10 @@
       <c r="E49">
         <v>4</v>
       </c>
-      <c r="F49">
-        <v>40401</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4077,6 +4413,11 @@
       <c r="V49" t="inlineStr">
         <is>
           <t>2017-09-05 오전 9:27:26</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4098,8 +4439,10 @@
       <c r="E50">
         <v>4</v>
       </c>
-      <c r="F50">
-        <v>40401</v>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -4150,6 +4493,11 @@
       <c r="V50" t="inlineStr">
         <is>
           <t>2017-09-06 오전 8:38:19</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4171,8 +4519,10 @@
       <c r="E51">
         <v>4</v>
       </c>
-      <c r="F51">
-        <v>40401</v>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -4223,6 +4573,11 @@
       <c r="V51" t="inlineStr">
         <is>
           <t>2017-09-18 오후 3:22:36</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4244,8 +4599,10 @@
       <c r="E52">
         <v>4</v>
       </c>
-      <c r="F52">
-        <v>40401</v>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -4296,6 +4653,11 @@
       <c r="V52" t="inlineStr">
         <is>
           <t>2017-09-28 오후 1:23:19</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4317,8 +4679,10 @@
       <c r="E53">
         <v>4</v>
       </c>
-      <c r="F53">
-        <v>40100</v>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>40100</t>
+        </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -4369,6 +4733,11 @@
       <c r="V53" t="inlineStr">
         <is>
           <t>2017-09-28 오전 9:10:00</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4390,8 +4759,10 @@
       <c r="E54">
         <v>4</v>
       </c>
-      <c r="F54">
-        <v>40700</v>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -4452,6 +4823,11 @@
       <c r="V54" t="inlineStr">
         <is>
           <t>2017-10-10 오후 4:59:03</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4473,8 +4849,10 @@
       <c r="E55">
         <v>4</v>
       </c>
-      <c r="F55">
-        <v>40401</v>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -4525,6 +4903,11 @@
       <c r="V55" t="inlineStr">
         <is>
           <t>2017-10-11 오전 11:36:45</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4546,8 +4929,10 @@
       <c r="E56">
         <v>4</v>
       </c>
-      <c r="F56">
-        <v>40401</v>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -4598,6 +4983,11 @@
       <c r="V56" t="inlineStr">
         <is>
           <t>2017-10-17 오후 3:24:42</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4619,8 +5009,10 @@
       <c r="E57">
         <v>4</v>
       </c>
-      <c r="F57">
-        <v>40401</v>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -4671,6 +5063,11 @@
       <c r="V57" t="inlineStr">
         <is>
           <t>2017-10-24 오전 8:45:51</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4692,8 +5089,10 @@
       <c r="E58">
         <v>4</v>
       </c>
-      <c r="F58">
-        <v>40700</v>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -4754,6 +5153,11 @@
       <c r="V58" t="inlineStr">
         <is>
           <t>2017-11-02 오후 2:01:38</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4775,8 +5179,10 @@
       <c r="E59">
         <v>4</v>
       </c>
-      <c r="F59">
-        <v>40401</v>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -4827,6 +5233,11 @@
       <c r="V59" t="inlineStr">
         <is>
           <t>2017-11-02 오전 9:54:04</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4848,8 +5259,10 @@
       <c r="E60">
         <v>4</v>
       </c>
-      <c r="F60">
-        <v>40700</v>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -4910,6 +5323,11 @@
       <c r="V60" t="inlineStr">
         <is>
           <t>2017-11-02 오후 1:52:07</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4931,8 +5349,10 @@
       <c r="E61">
         <v>4</v>
       </c>
-      <c r="F61">
-        <v>40401</v>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -4983,6 +5403,11 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>2017-11-06 오전 11:51:01</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5004,8 +5429,10 @@
       <c r="E62">
         <v>4</v>
       </c>
-      <c r="F62">
-        <v>40700</v>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -5066,6 +5493,11 @@
       <c r="V62" t="inlineStr">
         <is>
           <t>2018-01-18 오후 3:35:05</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5087,8 +5519,10 @@
       <c r="E63">
         <v>4</v>
       </c>
-      <c r="F63">
-        <v>40401</v>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -5139,6 +5573,11 @@
       <c r="V63" t="inlineStr">
         <is>
           <t>2017-11-13 오후 2:00:29</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5160,8 +5599,10 @@
       <c r="E64">
         <v>4</v>
       </c>
-      <c r="F64">
-        <v>40401</v>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -5212,6 +5653,11 @@
       <c r="V64" t="inlineStr">
         <is>
           <t>2017-11-22 오전 9:15:45</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5233,8 +5679,10 @@
       <c r="E65">
         <v>4</v>
       </c>
-      <c r="F65">
-        <v>40700</v>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -5295,6 +5743,11 @@
       <c r="V65" t="inlineStr">
         <is>
           <t>2017-12-04 오전 11:04:09</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5316,8 +5769,10 @@
       <c r="E66">
         <v>4</v>
       </c>
-      <c r="F66">
-        <v>40700</v>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -5378,6 +5833,11 @@
       <c r="V66" t="inlineStr">
         <is>
           <t>2017-12-05 오후 4:01:08</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5399,8 +5859,10 @@
       <c r="E67">
         <v>4</v>
       </c>
-      <c r="F67">
-        <v>40401</v>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -5451,6 +5913,11 @@
       <c r="V67" t="inlineStr">
         <is>
           <t>2017-12-06 오전 11:21:26</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5472,8 +5939,10 @@
       <c r="E68">
         <v>4</v>
       </c>
-      <c r="F68">
-        <v>40401</v>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -5524,6 +5993,11 @@
       <c r="V68" t="inlineStr">
         <is>
           <t>2017-12-06 오후 3:39:18</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5545,8 +6019,10 @@
       <c r="E69">
         <v>4</v>
       </c>
-      <c r="F69">
-        <v>40401</v>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -5597,6 +6073,11 @@
       <c r="V69" t="inlineStr">
         <is>
           <t>2017-12-06 오후 3:39:18</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5618,8 +6099,10 @@
       <c r="E70">
         <v>4</v>
       </c>
-      <c r="F70">
-        <v>40401</v>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -5670,6 +6153,11 @@
       <c r="V70" t="inlineStr">
         <is>
           <t>2017-12-13 오전 11:04:06</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5691,8 +6179,10 @@
       <c r="E71">
         <v>4</v>
       </c>
-      <c r="F71">
-        <v>40401</v>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -5743,6 +6233,11 @@
       <c r="V71" t="inlineStr">
         <is>
           <t>2018-01-04 오전 10:34:20</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5764,8 +6259,10 @@
       <c r="E72">
         <v>4</v>
       </c>
-      <c r="F72">
-        <v>40401</v>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -5816,6 +6313,11 @@
       <c r="V72" t="inlineStr">
         <is>
           <t>2017-12-26 오후 1:41:56</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5837,8 +6339,10 @@
       <c r="E73">
         <v>4</v>
       </c>
-      <c r="F73">
-        <v>40100</v>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>40100</t>
+        </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -5889,6 +6393,11 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>2018-01-03 오전 11:20:02</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5910,8 +6419,10 @@
       <c r="E74">
         <v>4</v>
       </c>
-      <c r="F74">
-        <v>40100</v>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>40100</t>
+        </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -5962,6 +6473,11 @@
       <c r="V74" t="inlineStr">
         <is>
           <t>2017-12-29 오전 9:22:14</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5983,8 +6499,10 @@
       <c r="E75">
         <v>4</v>
       </c>
-      <c r="F75">
-        <v>40700</v>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -6045,6 +6563,11 @@
       <c r="V75" t="inlineStr">
         <is>
           <t>2018-01-03 오전 11:20:02</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -6066,8 +6589,10 @@
       <c r="E76">
         <v>4</v>
       </c>
-      <c r="F76">
-        <v>40700</v>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>40700</t>
+        </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -6128,6 +6653,11 @@
       <c r="V76" t="inlineStr">
         <is>
           <t>2018-01-03 오후 7:58:46</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -6149,8 +6679,10 @@
       <c r="E77">
         <v>4</v>
       </c>
-      <c r="F77">
-        <v>40401</v>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -6201,6 +6733,11 @@
       <c r="V77" t="inlineStr">
         <is>
           <t>2018-01-17 오후 7:44:54</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
